--- a/EXCEL-JONAS.xlsx
+++ b/EXCEL-JONAS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mufis\Downloads\trabalho jonas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{918CA20C-E90E-4DAC-8260-28F9313A8FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B2B48-67EB-43FC-80AE-D95C10E49160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{BA82351A-1782-42B7-AFFD-4F96EFC70053}"/>
+    <workbookView xWindow="4800" yWindow="1875" windowWidth="22710" windowHeight="12300" activeTab="1" xr2:uid="{BA82351A-1782-42B7-AFFD-4F96EFC70053}"/>
   </bookViews>
   <sheets>
     <sheet name="sp matriz" sheetId="1" r:id="rId1"/>
+    <sheet name="Interior SP e MG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>PCS</t>
   </si>
@@ -117,13 +118,53 @@
   </si>
   <si>
     <t>QUAL O TIPO?</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>manut</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>preço</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Access Point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,23 +217,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943ECE1E-FEF3-46DD-8157-2501C9C38248}">
   <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -730,4 +799,223 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBEB0A7-075F-456F-8E57-1B6116A8255A}">
+  <dimension ref="B2:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCellId="3" sqref="A7:XFD1048576 N6:XFD6 A6:L6 A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C3:C10)</f>
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:F11" si="0">SUM(D3:D10)</f>
+        <v>37</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <f>SUM('sp matriz'!B11,C11)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6">
+        <f>PRODUCT(C14,C12)</f>
+        <v>527340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>